--- a/distancias_santiago.xlsx
+++ b/distancias_santiago.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiari\Desktop\proyecto_opti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiari\Desktop\Proyecto Opti\proyecto_opti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B8C15-A588-46D6-A064-2699D204FB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F26366-D5E2-41A0-AE33-FE9ADEAA2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AM39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1625,9 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
@@ -1745,7 +1747,9 @@
       <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>74</v>
       </c>
@@ -1865,7 +1869,9 @@
       <c r="C4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
       <c r="E4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1985,7 +1991,9 @@
       <c r="D5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>132</v>
       </c>
@@ -2105,7 +2113,9 @@
       <c r="E6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>154</v>
       </c>
@@ -2225,7 +2235,9 @@
       <c r="F7" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>177</v>
       </c>
@@ -2345,7 +2357,9 @@
       <c r="G8" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
       <c r="I8" s="2" t="s">
         <v>133</v>
       </c>
@@ -2465,7 +2479,9 @@
       <c r="H9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="2" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2601,9 @@
       <c r="I10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
       <c r="K10" s="2" t="s">
         <v>224</v>
       </c>
@@ -2705,7 +2723,9 @@
       <c r="J11" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
       <c r="L11" s="2" t="s">
         <v>74</v>
       </c>
@@ -2825,7 +2845,9 @@
       <c r="K12" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="L12" s="2"/>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
       <c r="M12" s="2" t="s">
         <v>252</v>
       </c>
@@ -2945,7 +2967,9 @@
       <c r="L13" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
       <c r="N13" s="2" t="s">
         <v>104</v>
       </c>
@@ -3065,7 +3089,9 @@
       <c r="M14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="N14" s="2"/>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
       <c r="O14" s="2" t="s">
         <v>252</v>
       </c>
@@ -3185,7 +3211,9 @@
       <c r="N15" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="O15" s="2"/>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
       <c r="P15" s="2" t="s">
         <v>105</v>
       </c>
@@ -3305,7 +3333,9 @@
       <c r="O16" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
       <c r="Q16" s="2" t="s">
         <v>278</v>
       </c>
@@ -3425,7 +3455,9 @@
       <c r="P17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
       <c r="R17" s="2" t="s">
         <v>250</v>
       </c>
@@ -3545,7 +3577,9 @@
       <c r="Q18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
       <c r="S18" s="2" t="s">
         <v>224</v>
       </c>
@@ -3665,7 +3699,9 @@
       <c r="R19" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="S19" s="2"/>
+      <c r="S19" s="2">
+        <v>0</v>
+      </c>
       <c r="T19" s="2" t="s">
         <v>225</v>
       </c>
@@ -3785,7 +3821,9 @@
       <c r="S20" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="T20" s="2"/>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
       <c r="U20" s="2" t="s">
         <v>195</v>
       </c>
@@ -3905,7 +3943,9 @@
       <c r="T21" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="U21" s="2"/>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
       <c r="V21" s="2" t="s">
         <v>83</v>
       </c>
@@ -4025,7 +4065,9 @@
       <c r="U22" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="V22" s="2"/>
+      <c r="V22" s="2">
+        <v>0</v>
+      </c>
       <c r="W22" s="2" t="s">
         <v>252</v>
       </c>
@@ -4145,7 +4187,9 @@
       <c r="V23" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="W23" s="2"/>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
       <c r="X23" s="2" t="s">
         <v>131</v>
       </c>
@@ -4265,7 +4309,9 @@
       <c r="W24" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
       <c r="Y24" s="2" t="s">
         <v>131</v>
       </c>
@@ -4385,7 +4431,9 @@
       <c r="X25" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Y25" s="2"/>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
       <c r="Z25" s="2" t="s">
         <v>278</v>
       </c>
@@ -4505,7 +4553,9 @@
       <c r="Y26" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="Z26" s="2"/>
+      <c r="Z26" s="2">
+        <v>0</v>
+      </c>
       <c r="AA26" s="2" t="s">
         <v>329</v>
       </c>
@@ -4625,7 +4675,9 @@
       <c r="Z27" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="AA27" s="2"/>
+      <c r="AA27" s="2">
+        <v>0</v>
+      </c>
       <c r="AB27" s="2" t="s">
         <v>224</v>
       </c>
@@ -4745,7 +4797,9 @@
       <c r="AA28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB28" s="2"/>
+      <c r="AB28" s="2">
+        <v>0</v>
+      </c>
       <c r="AC28" s="2" t="s">
         <v>336</v>
       </c>
@@ -4865,7 +4919,9 @@
       <c r="AB29" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AC29" s="2"/>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
       <c r="AD29" s="2" t="s">
         <v>75</v>
       </c>
@@ -4985,7 +5041,9 @@
       <c r="AC30" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AD30" s="2"/>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
       <c r="AE30" s="2" t="s">
         <v>109</v>
       </c>
@@ -5105,7 +5163,9 @@
       <c r="AD31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AE31" s="2"/>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
       <c r="AF31" s="2" t="s">
         <v>133</v>
       </c>
@@ -5225,7 +5285,9 @@
       <c r="AE32" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="AF32" s="2"/>
+      <c r="AF32" s="2">
+        <v>0</v>
+      </c>
       <c r="AG32" s="2" t="s">
         <v>252</v>
       </c>
@@ -5345,7 +5407,9 @@
       <c r="AF33" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="AG33" s="2"/>
+      <c r="AG33" s="2">
+        <v>0</v>
+      </c>
       <c r="AH33" s="2" t="s">
         <v>75</v>
       </c>
@@ -5465,7 +5529,9 @@
       <c r="AG34" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AH34" s="2"/>
+      <c r="AH34" s="2">
+        <v>0</v>
+      </c>
       <c r="AI34" s="2" t="s">
         <v>348</v>
       </c>
@@ -5585,7 +5651,9 @@
       <c r="AH35" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="AI35" s="2"/>
+      <c r="AI35" s="2">
+        <v>0</v>
+      </c>
       <c r="AJ35" s="2" t="s">
         <v>79</v>
       </c>
@@ -5705,7 +5773,9 @@
       <c r="AI36" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AJ36" s="2"/>
+      <c r="AJ36" s="2">
+        <v>0</v>
+      </c>
       <c r="AK36" s="2" t="s">
         <v>214</v>
       </c>
@@ -5825,7 +5895,9 @@
       <c r="AJ37" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AK37" s="2"/>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
       <c r="AL37" s="2" t="s">
         <v>131</v>
       </c>
@@ -5945,7 +6017,9 @@
       <c r="AK38" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AL38" s="2"/>
+      <c r="AL38" s="2">
+        <v>0</v>
+      </c>
       <c r="AM38" s="2" t="s">
         <v>250</v>
       </c>
@@ -6065,7 +6139,9 @@
       <c r="AL39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AM39" s="2"/>
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/distancias_santiago.xlsx
+++ b/distancias_santiago.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aiari\Desktop\Proyecto Opti\proyecto_opti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/jpints_uc_cl/Documents/2023'2/Optimización/proyecto_opti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F26366-D5E2-41A0-AE33-FE9ADEAA2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{E5F26366-D5E2-41A0-AE33-FE9ADEAA2F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB1696B6-A9BF-2A41-8C75-D3DD9BA1CE4B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,6 +1145,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1182,12 +1188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,17 +1501,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AM39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1533,7 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1621,7 +1630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1740,7 +1749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1978,7 +1987,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2097,7 +2106,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -2216,7 +2225,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2573,7 +2582,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2692,7 +2701,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2811,7 +2820,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2930,7 +2939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -3287,7 +3296,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -3406,7 +3415,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
@@ -3525,7 +3534,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -3882,7 +3891,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
@@ -4001,7 +4010,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
@@ -4120,7 +4129,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
@@ -4239,7 +4248,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
@@ -4358,7 +4367,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
@@ -4477,7 +4486,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -4596,7 +4605,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -4715,7 +4724,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -4834,7 +4843,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -4953,7 +4962,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
@@ -5072,7 +5081,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -5191,7 +5200,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -5310,7 +5319,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -5548,7 +5557,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -5667,7 +5676,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -5905,7 +5914,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -6024,7 +6033,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
